--- a/AAII_Financials/Yearly/RGMP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RGMP_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
   <si>
     <t>RGMP</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,37 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -705,9 +705,12 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -720,8 +723,8 @@
       <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+      <c r="G8" s="3">
+        <v>0</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -732,9 +735,12 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -759,9 +765,12 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -786,9 +795,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,8 +812,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -826,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,9 +869,12 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -880,9 +899,12 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -892,8 +914,8 @@
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
+      <c r="F15" s="3">
+        <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
@@ -907,9 +929,12 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,8 +943,9 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -932,8 +958,8 @@
       <c r="F17" s="3">
         <v>0</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+      <c r="G17" s="3">
+        <v>0</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -944,9 +970,12 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -959,8 +988,8 @@
       <c r="F18" s="3">
         <v>0</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+      <c r="G18" s="3">
+        <v>0</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -971,9 +1000,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,8 +1017,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -999,8 +1032,8 @@
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1011,9 +1044,12 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1023,8 +1059,8 @@
       <c r="E21" s="3">
         <v>0</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+      <c r="F21" s="3">
+        <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1038,9 +1074,12 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1065,9 +1104,12 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1080,8 +1122,8 @@
       <c r="F23" s="3">
         <v>0</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+      <c r="G23" s="3">
+        <v>0</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1092,9 +1134,12 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1107,8 +1152,8 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1119,9 +1164,12 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,9 +1194,12 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1161,8 +1212,8 @@
       <c r="F26" s="3">
         <v>0</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+      <c r="G26" s="3">
+        <v>0</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1173,9 +1224,12 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1188,8 +1242,8 @@
       <c r="F27" s="3">
         <v>0</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+      <c r="G27" s="3">
+        <v>0</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1200,9 +1254,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,9 +1284,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1254,9 +1314,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,9 +1374,12 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1323,8 +1392,8 @@
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1335,9 +1404,12 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1350,8 +1422,8 @@
       <c r="F33" s="3">
         <v>0</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+      <c r="G33" s="3">
+        <v>0</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1362,9 +1434,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,9 +1464,12 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1404,8 +1482,8 @@
       <c r="F35" s="3">
         <v>0</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+      <c r="G35" s="3">
+        <v>0</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1416,29 +1494,32 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1448,9 +1529,12 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,8 +1560,9 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1489,8 +1575,8 @@
       <c r="F41" s="3">
         <v>0</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+      <c r="G41" s="3">
+        <v>0</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1501,9 +1587,12 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1528,9 +1617,12 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1555,9 +1647,12 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1582,9 +1677,12 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1609,9 +1707,12 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1624,8 +1725,8 @@
       <c r="F46" s="3">
         <v>0</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+      <c r="G46" s="3">
+        <v>0</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1636,9 +1737,12 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1663,9 +1767,12 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1690,9 +1797,12 @@
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1702,8 +1812,8 @@
       <c r="E49" s="3">
         <v>0</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+      <c r="F49" s="3">
+        <v>0</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1717,9 +1827,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,9 +1887,12 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1798,9 +1917,12 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,9 +1947,12 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1840,8 +1965,8 @@
       <c r="F54" s="3">
         <v>0</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+      <c r="G54" s="3">
+        <v>0</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1852,9 +1977,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,8 +2008,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1896,18 +2026,21 @@
       <c r="G57" s="3">
         <v>0</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="H57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -1932,9 +2065,12 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -1959,9 +2095,12 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -1974,8 +2113,8 @@
       <c r="F60" s="3">
         <v>0</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+      <c r="G60" s="3">
+        <v>0</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -1986,9 +2125,12 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2013,9 +2155,12 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2040,9 +2185,12 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,9 +2275,12 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2136,8 +2293,8 @@
       <c r="F66" s="3">
         <v>0</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+      <c r="G66" s="3">
+        <v>0</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2148,9 +2305,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,9 +2379,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2242,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,9 +2439,12 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2284,8 +2457,8 @@
       <c r="F72" s="3">
         <v>0</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+      <c r="G72" s="3">
+        <v>0</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2296,9 +2469,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,9 +2559,12 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2392,8 +2577,8 @@
       <c r="F76" s="3">
         <v>0</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+      <c r="G76" s="3">
+        <v>0</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2404,9 +2589,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,29 +2619,32 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2463,9 +2654,12 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2478,8 +2672,8 @@
       <c r="F81" s="3">
         <v>0</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+      <c r="G81" s="3">
+        <v>0</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2490,9 +2684,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,8 +2701,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2515,8 +2713,8 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2530,9 +2728,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,9 +2878,12 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2680,8 +2896,8 @@
       <c r="F89" s="3">
         <v>0</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+      <c r="G89" s="3">
+        <v>0</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2692,9 +2908,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,8 +2925,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2732,9 +2952,12 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,9 +3012,12 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2801,8 +3030,8 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -2813,9 +3042,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,8 +3059,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2853,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,9 +3176,12 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -2949,8 +3194,8 @@
       <c r="F100" s="3">
         <v>0</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+      <c r="G100" s="3">
+        <v>0</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -2961,9 +3206,12 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -2988,9 +3236,12 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3003,8 +3254,8 @@
       <c r="F102" s="3">
         <v>0</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+      <c r="G102" s="3">
+        <v>0</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3015,7 +3266,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/RGMP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RGMP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
   <si>
     <t>RGMP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,40 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,9 +708,12 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -726,8 +729,8 @@
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+      <c r="H8" s="3">
+        <v>0</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -738,14 +741,17 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -768,9 +774,12 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,9 +888,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -902,9 +921,12 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -917,8 +939,8 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
+      <c r="G15" s="3">
+        <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -932,9 +954,12 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,13 +969,14 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -961,8 +987,8 @@
       <c r="G17" s="3">
         <v>0</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+      <c r="H17" s="3">
+        <v>0</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -973,9 +999,12 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -991,8 +1020,8 @@
       <c r="G18" s="3">
         <v>0</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+      <c r="H18" s="3">
+        <v>0</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1003,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,8 +1050,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1035,8 +1068,8 @@
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1047,14 +1080,17 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -1062,8 +1098,8 @@
       <c r="F21" s="3">
         <v>0</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+      <c r="G21" s="3">
+        <v>0</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1077,9 +1113,12 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1107,14 +1146,17 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1125,8 +1167,8 @@
       <c r="G23" s="3">
         <v>0</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+      <c r="H23" s="3">
+        <v>0</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1137,9 +1179,12 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1155,8 +1200,8 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1167,9 +1212,12 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,14 +1245,17 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1215,8 +1266,8 @@
       <c r="G26" s="3">
         <v>0</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+      <c r="H26" s="3">
+        <v>0</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1227,14 +1278,17 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1245,8 +1299,8 @@
       <c r="G27" s="3">
         <v>0</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+      <c r="H27" s="3">
+        <v>0</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1257,9 +1311,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,9 +1443,12 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1395,8 +1464,8 @@
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1407,14 +1476,17 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -1425,8 +1497,8 @@
       <c r="G33" s="3">
         <v>0</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+      <c r="H33" s="3">
+        <v>0</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1437,9 +1509,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,14 +1542,17 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -1485,8 +1563,8 @@
       <c r="G35" s="3">
         <v>0</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+      <c r="H35" s="3">
+        <v>0</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1497,32 +1575,35 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1532,9 +1613,12 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,8 +1646,9 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1578,8 +1664,8 @@
       <c r="G41" s="3">
         <v>0</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+      <c r="H41" s="3">
+        <v>0</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1590,9 +1676,12 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1620,39 +1709,45 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1680,9 +1775,12 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1710,9 +1808,12 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1728,8 +1829,8 @@
       <c r="G46" s="3">
         <v>0</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+      <c r="H46" s="3">
+        <v>0</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1740,9 +1841,12 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1770,9 +1874,12 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1800,9 +1907,12 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1815,8 +1925,8 @@
       <c r="F49" s="3">
         <v>0</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+      <c r="G49" s="3">
+        <v>0</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1830,9 +1940,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,9 +2006,12 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1920,9 +2039,12 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,9 +2072,12 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1968,8 +2093,8 @@
       <c r="G54" s="3">
         <v>0</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+      <c r="H54" s="3">
+        <v>0</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -1980,9 +2105,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,13 +2138,14 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -2026,8 +2156,8 @@
       <c r="G57" s="3">
         <v>0</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+      <c r="H57" s="3">
+        <v>0</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2035,12 +2165,15 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2068,9 +2201,12 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2083,8 +2219,8 @@
       <c r="F59" s="3">
         <v>0</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+      <c r="G59" s="3">
+        <v>0</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2098,14 +2234,17 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
         <v>0</v>
@@ -2116,8 +2255,8 @@
       <c r="G60" s="3">
         <v>0</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+      <c r="H60" s="3">
+        <v>0</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2128,9 +2267,12 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2158,9 +2300,12 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2188,9 +2333,12 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,14 +2432,17 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E66" s="3">
         <v>0</v>
@@ -2296,8 +2453,8 @@
       <c r="G66" s="3">
         <v>0</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+      <c r="H66" s="3">
+        <v>0</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2308,9 +2465,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,14 +2612,17 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E72" s="3">
         <v>0</v>
@@ -2460,8 +2633,8 @@
       <c r="G72" s="3">
         <v>0</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+      <c r="H72" s="3">
+        <v>0</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,14 +2744,17 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E76" s="3">
         <v>0</v>
@@ -2580,8 +2765,8 @@
       <c r="G76" s="3">
         <v>0</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+      <c r="H76" s="3">
+        <v>0</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2592,9 +2777,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,32 +2810,35 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2657,14 +2848,17 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -2675,8 +2869,8 @@
       <c r="G81" s="3">
         <v>0</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+      <c r="H81" s="3">
+        <v>0</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2687,9 +2881,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,8 +2899,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2716,8 +2914,8 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2731,9 +2929,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,9 +3094,12 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2899,8 +3115,8 @@
       <c r="G89" s="3">
         <v>0</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+      <c r="H89" s="3">
+        <v>0</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2911,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,8 +3145,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2955,9 +3175,12 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,9 +3241,12 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3033,8 +3262,8 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3045,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,14 +3421,17 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -3197,8 +3442,8 @@
       <c r="G100" s="3">
         <v>0</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3209,9 +3454,12 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3239,9 +3487,12 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3257,8 +3508,8 @@
       <c r="G102" s="3">
         <v>0</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+      <c r="H102" s="3">
+        <v>0</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3269,7 +3520,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/RGMP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RGMP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
   <si>
     <t>RGMP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,43 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,9 +711,12 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -732,8 +735,8 @@
       <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+      <c r="I8" s="3">
+        <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -744,17 +747,20 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -777,17 +783,20 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
+      <c r="E10" s="3">
+        <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -810,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +838,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,9 +907,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -924,9 +943,12 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -942,8 +964,8 @@
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
+      <c r="H15" s="3">
+        <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -957,9 +979,12 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,17 +995,18 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
       <c r="F17" s="3">
         <v>0</v>
       </c>
@@ -990,8 +1016,8 @@
       <c r="H17" s="3">
         <v>0</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+      <c r="I17" s="3">
+        <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1002,9 +1028,12 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1012,7 +1041,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1023,8 +1052,8 @@
       <c r="H18" s="3">
         <v>0</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+      <c r="I18" s="3">
+        <v>0</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1035,9 +1064,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,8 +1083,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1071,8 +1104,8 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1083,26 +1116,29 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+      <c r="H21" s="3">
+        <v>0</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1116,9 +1152,12 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1149,18 +1188,21 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
@@ -1170,8 +1212,8 @@
       <c r="H23" s="3">
         <v>0</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+      <c r="I23" s="3">
+        <v>0</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1182,9 +1224,12 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1248,8 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1215,9 +1260,12 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,18 +1296,21 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
@@ -1269,8 +1320,8 @@
       <c r="H26" s="3">
         <v>0</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+      <c r="I26" s="3">
+        <v>0</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1281,18 +1332,21 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
@@ -1302,8 +1356,8 @@
       <c r="H27" s="3">
         <v>0</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+      <c r="I27" s="3">
+        <v>0</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1314,9 +1368,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,9 +1512,12 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1467,8 +1536,8 @@
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1479,18 +1548,21 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
@@ -1500,8 +1572,8 @@
       <c r="H33" s="3">
         <v>0</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+      <c r="I33" s="3">
+        <v>0</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1512,9 +1584,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,18 +1620,21 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
@@ -1566,8 +1644,8 @@
       <c r="H35" s="3">
         <v>0</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+      <c r="I35" s="3">
+        <v>0</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1578,35 +1656,38 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1616,9 +1697,12 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,13 +1732,14 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -1667,8 +1753,8 @@
       <c r="H41" s="3">
         <v>0</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+      <c r="I41" s="3">
+        <v>0</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1679,9 +1765,12 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1712,17 +1801,20 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
+      <c r="E43" s="3">
+        <v>0</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1739,15 +1831,18 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1778,32 +1873,35 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="E45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -1811,14 +1909,17 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -1832,8 +1933,8 @@
       <c r="H46" s="3">
         <v>0</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+      <c r="I46" s="3">
+        <v>0</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1844,9 +1945,12 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1877,9 +1981,12 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1910,14 +2017,17 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
@@ -1928,8 +2038,8 @@
       <c r="G49" s="3">
         <v>0</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+      <c r="H49" s="3">
+        <v>0</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1943,9 +2053,12 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,9 +2125,12 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2042,9 +2161,12 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,14 +2197,17 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -2096,8 +2221,8 @@
       <c r="H54" s="3">
         <v>0</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+      <c r="I54" s="3">
+        <v>0</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2108,9 +2233,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,17 +2268,18 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
@@ -2159,8 +2289,8 @@
       <c r="H57" s="3">
         <v>0</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+      <c r="I57" s="3">
+        <v>0</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2168,35 +2298,38 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>1500</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2204,9 +2337,12 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2222,8 +2358,8 @@
       <c r="G59" s="3">
         <v>0</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+      <c r="H59" s="3">
+        <v>0</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2237,18 +2373,21 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E60" s="3">
         <v>100</v>
       </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
       <c r="F60" s="3">
         <v>0</v>
       </c>
@@ -2258,8 +2397,8 @@
       <c r="H60" s="3">
         <v>0</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+      <c r="I60" s="3">
+        <v>0</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2270,9 +2409,12 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2303,9 +2445,12 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2336,9 +2481,12 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,18 +2589,21 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E66" s="3">
         <v>100</v>
       </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
       <c r="F66" s="3">
         <v>0</v>
       </c>
@@ -2456,8 +2613,8 @@
       <c r="H66" s="3">
         <v>0</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+      <c r="I66" s="3">
+        <v>0</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2468,9 +2625,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,18 +2785,21 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-200</v>
       </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
       <c r="F72" s="3">
         <v>0</v>
       </c>
@@ -2636,8 +2809,8 @@
       <c r="H72" s="3">
         <v>0</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+      <c r="I72" s="3">
+        <v>0</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2648,9 +2821,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,18 +2929,21 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-100</v>
       </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
       <c r="F76" s="3">
         <v>0</v>
       </c>
@@ -2768,8 +2953,8 @@
       <c r="H76" s="3">
         <v>0</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+      <c r="I76" s="3">
+        <v>0</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2780,9 +2965,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,35 +3001,38 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2851,18 +3042,21 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
         <v>0</v>
       </c>
@@ -2872,8 +3066,8 @@
       <c r="H81" s="3">
         <v>0</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+      <c r="I81" s="3">
+        <v>0</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2884,9 +3078,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,8 +3097,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2917,8 +3115,8 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2932,9 +3130,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,9 +3310,12 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3118,8 +3334,8 @@
       <c r="H89" s="3">
         <v>0</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+      <c r="I89" s="3">
+        <v>0</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3130,9 +3346,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,8 +3365,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3178,9 +3398,12 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,9 +3470,12 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3265,8 +3494,8 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3277,9 +3506,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,17 +3666,20 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="D100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -3445,8 +3690,8 @@
       <c r="H100" s="3">
         <v>0</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3457,9 +3702,12 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3490,14 +3738,17 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -3511,8 +3762,8 @@
       <c r="H102" s="3">
         <v>0</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+      <c r="I102" s="3">
+        <v>0</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3523,7 +3774,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/RGMP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RGMP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="92">
   <si>
     <t>RGMP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,46 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -714,9 +714,12 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -738,8 +741,8 @@
       <c r="I8" s="3">
         <v>0</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+      <c r="J8" s="3">
+        <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -750,20 +753,23 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
+      <c r="E9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -786,20 +792,23 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
+      <c r="E10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -822,9 +831,12 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +851,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,9 +887,12 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,9 +926,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -946,14 +965,17 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -967,8 +989,8 @@
       <c r="H15" s="3">
         <v>0</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
+      <c r="I15" s="3">
+        <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
@@ -982,9 +1004,12 @@
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,20 +1021,21 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
@@ -1019,8 +1045,8 @@
       <c r="I17" s="3">
         <v>0</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+      <c r="J17" s="3">
+        <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1031,9 +1057,12 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1041,11 +1070,11 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
@@ -1055,8 +1084,8 @@
       <c r="I18" s="3">
         <v>0</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+      <c r="J18" s="3">
+        <v>0</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1067,9 +1096,12 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,8 +1116,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1093,7 +1126,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1107,8 +1140,8 @@
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1119,29 +1152,32 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>-300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
         <v>0</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+      <c r="I21" s="3">
+        <v>0</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1155,9 +1191,12 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1191,21 +1230,24 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
@@ -1215,8 +1257,8 @@
       <c r="I23" s="3">
         <v>0</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="J23" s="3">
+        <v>0</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1227,9 +1269,12 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1251,8 +1296,8 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1263,9 +1308,12 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,21 +1347,24 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
@@ -1323,8 +1374,8 @@
       <c r="I26" s="3">
         <v>0</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="J26" s="3">
+        <v>0</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1335,21 +1386,24 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
@@ -1359,8 +1413,8 @@
       <c r="I27" s="3">
         <v>0</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="J27" s="3">
+        <v>0</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1371,9 +1425,12 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,9 +1581,12 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1525,7 +1594,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1539,8 +1608,8 @@
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1551,21 +1620,24 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
@@ -1575,8 +1647,8 @@
       <c r="I33" s="3">
         <v>0</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="J33" s="3">
+        <v>0</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1587,9 +1659,12 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,21 +1698,24 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
@@ -1647,8 +1725,8 @@
       <c r="I35" s="3">
         <v>0</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="J35" s="3">
+        <v>0</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1659,38 +1737,41 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1700,9 +1781,12 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,17 +1818,18 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>800</v>
+      </c>
+      <c r="E41" s="3">
         <v>1500</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
@@ -1756,8 +1842,8 @@
       <c r="I41" s="3">
         <v>0</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1768,9 +1854,12 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1804,9 +1893,12 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1816,8 +1908,8 @@
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+      <c r="F43" s="3">
+        <v>0</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1834,15 +1926,18 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1876,17 +1971,20 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1903,8 +2001,8 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -1912,18 +2010,21 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1500</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
@@ -1936,8 +2037,8 @@
       <c r="I46" s="3">
         <v>0</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+      <c r="J46" s="3">
+        <v>0</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1948,9 +2049,12 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1984,9 +2088,12 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2020,17 +2127,20 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -2041,8 +2151,8 @@
       <c r="H49" s="3">
         <v>0</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+      <c r="I49" s="3">
+        <v>0</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2056,9 +2166,12 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,9 +2244,12 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2164,9 +2283,12 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,18 +2322,21 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1500</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
       <c r="F54" s="3">
         <v>0</v>
       </c>
@@ -2224,8 +2349,8 @@
       <c r="I54" s="3">
         <v>0</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+      <c r="J54" s="3">
+        <v>0</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2236,9 +2361,12 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,8 +2398,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2278,11 +2408,11 @@
         <v>300</v>
       </c>
       <c r="E57" s="3">
+        <v>300</v>
+      </c>
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
@@ -2292,8 +2422,8 @@
       <c r="I57" s="3">
         <v>0</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+      <c r="J57" s="3">
+        <v>0</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2301,21 +2431,24 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E58" s="3">
         <v>1500</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2331,8 +2464,8 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2340,14 +2473,17 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -2361,8 +2497,8 @@
       <c r="H59" s="3">
         <v>0</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2376,21 +2512,24 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>100</v>
       </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
       <c r="G60" s="3">
         <v>0</v>
       </c>
@@ -2400,8 +2539,8 @@
       <c r="I60" s="3">
         <v>0</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+      <c r="J60" s="3">
+        <v>0</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2412,9 +2551,12 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2448,9 +2590,12 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2484,9 +2629,12 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,21 +2746,24 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>100</v>
       </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
       <c r="G66" s="3">
         <v>0</v>
       </c>
@@ -2616,8 +2773,8 @@
       <c r="I66" s="3">
         <v>0</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+      <c r="J66" s="3">
+        <v>0</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2628,9 +2785,12 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,21 +2958,24 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-200</v>
       </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
       <c r="G72" s="3">
         <v>0</v>
       </c>
@@ -2812,8 +2985,8 @@
       <c r="I72" s="3">
         <v>0</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+      <c r="J72" s="3">
+        <v>0</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2824,9 +2997,12 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,21 +3114,24 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-100</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
       <c r="G76" s="3">
         <v>0</v>
       </c>
@@ -2956,8 +3141,8 @@
       <c r="I76" s="3">
         <v>0</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+      <c r="J76" s="3">
+        <v>0</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2968,9 +3153,12 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,38 +3192,41 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3045,21 +3236,24 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
@@ -3069,8 +3263,8 @@
       <c r="I81" s="3">
         <v>0</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="J81" s="3">
+        <v>0</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3081,9 +3275,12 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,13 +3295,14 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -3118,8 +3316,8 @@
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3133,9 +3331,12 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,14 +3526,17 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -3337,8 +3553,8 @@
       <c r="I89" s="3">
         <v>0</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3349,9 +3565,12 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,8 +3585,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3401,9 +3621,12 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,9 +3699,12 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3497,8 +3726,8 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3509,9 +3738,12 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,8 +3758,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3561,9 +3794,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,20 +3911,23 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>1500</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -3693,8 +3938,8 @@
       <c r="I100" s="3">
         <v>0</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3705,9 +3950,12 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3741,18 +3989,21 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E102" s="3">
         <v>1500</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -3765,8 +4016,8 @@
       <c r="I102" s="3">
         <v>0</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3777,7 +4028,10 @@
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
